--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Areg-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Areg-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Egfr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.223433</v>
+        <v>0.06034933333333333</v>
       </c>
       <c r="H2">
-        <v>0.670299</v>
+        <v>0.181048</v>
       </c>
       <c r="I2">
-        <v>0.07062332792199583</v>
+        <v>0.02777843199183991</v>
       </c>
       <c r="J2">
-        <v>0.0800818668959252</v>
+        <v>0.03147049580180165</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N2">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O2">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P2">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q2">
-        <v>0.2705901731586667</v>
+        <v>0.03981931490755555</v>
       </c>
       <c r="R2">
-        <v>2.435311558428</v>
+        <v>0.3583738341679999</v>
       </c>
       <c r="S2">
-        <v>0.001041421880140972</v>
+        <v>0.0002140254671041018</v>
       </c>
       <c r="T2">
-        <v>0.001279960134009592</v>
+        <v>0.0002670170397415244</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.223433</v>
+        <v>0.06034933333333333</v>
       </c>
       <c r="H3">
-        <v>0.670299</v>
+        <v>0.181048</v>
       </c>
       <c r="I3">
-        <v>0.07062332792199583</v>
+        <v>0.02777843199183991</v>
       </c>
       <c r="J3">
-        <v>0.0800818668959252</v>
+        <v>0.03147049580180165</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P3">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q3">
-        <v>13.64285458032467</v>
+        <v>3.684939908993778</v>
       </c>
       <c r="R3">
-        <v>122.785691222922</v>
+        <v>33.16445918094399</v>
       </c>
       <c r="S3">
-        <v>0.05250732907879999</v>
+        <v>0.01980624194825845</v>
       </c>
       <c r="T3">
-        <v>0.06453416165511047</v>
+        <v>0.0247101626034812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.223433</v>
+        <v>0.06034933333333333</v>
       </c>
       <c r="H4">
-        <v>0.670299</v>
+        <v>0.181048</v>
       </c>
       <c r="I4">
-        <v>0.07062332792199583</v>
+        <v>0.02777843199183991</v>
       </c>
       <c r="J4">
-        <v>0.0800818668959252</v>
+        <v>0.03147049580180165</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N4">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O4">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P4">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q4">
-        <v>0.029555270374</v>
+        <v>0.009435537800888889</v>
       </c>
       <c r="R4">
-        <v>0.265997433366</v>
+        <v>0.08491984020799999</v>
       </c>
       <c r="S4">
-        <v>0.0001137495308187618</v>
+        <v>5.071522174356829E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001398039233539073</v>
+        <v>6.327204216877546E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.223433</v>
+        <v>0.06034933333333333</v>
       </c>
       <c r="H5">
-        <v>0.670299</v>
+        <v>0.181048</v>
       </c>
       <c r="I5">
-        <v>0.07062332792199583</v>
+        <v>0.02777843199183991</v>
       </c>
       <c r="J5">
-        <v>0.0800818668959252</v>
+        <v>0.03147049580180165</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N5">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O5">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P5">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q5">
-        <v>4.260515626458</v>
+        <v>1.425229741105333</v>
       </c>
       <c r="R5">
-        <v>25.563093758748</v>
+        <v>8.551378446631999</v>
       </c>
       <c r="S5">
-        <v>0.01639746980565384</v>
+        <v>0.007660489935070376</v>
       </c>
       <c r="T5">
-        <v>0.01343554618295637</v>
+        <v>0.006371457793033926</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.223433</v>
+        <v>0.06034933333333333</v>
       </c>
       <c r="H6">
-        <v>0.670299</v>
+        <v>0.181048</v>
       </c>
       <c r="I6">
-        <v>0.07062332792199583</v>
+        <v>0.02777843199183991</v>
       </c>
       <c r="J6">
-        <v>0.0800818668959252</v>
+        <v>0.03147049580180165</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N6">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O6">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P6">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q6">
-        <v>0.146375873826</v>
+        <v>0.008736772986666667</v>
       </c>
       <c r="R6">
-        <v>1.317382864434</v>
+        <v>0.07863095688000001</v>
       </c>
       <c r="S6">
-        <v>0.000563357626582265</v>
+        <v>4.695941966342138E-05</v>
       </c>
       <c r="T6">
-        <v>0.0006923950004948554</v>
+        <v>5.858632337621655E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.7489203333333333</v>
+        <v>0.223433</v>
       </c>
       <c r="H7">
-        <v>2.246761</v>
+        <v>0.670299</v>
       </c>
       <c r="I7">
-        <v>0.2367208348294586</v>
+        <v>0.1028448543242582</v>
       </c>
       <c r="J7">
-        <v>0.2684247109856285</v>
+        <v>0.116514083919468</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N7">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O7">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P7">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q7">
-        <v>0.9069854617657778</v>
+        <v>0.1474241469843333</v>
       </c>
       <c r="R7">
-        <v>8.162869155891999</v>
+        <v>1.326817322859</v>
       </c>
       <c r="S7">
-        <v>0.003490719909842339</v>
+        <v>0.0007923923853034133</v>
       </c>
       <c r="T7">
-        <v>0.004290271223211617</v>
+        <v>0.0009885845451024263</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.7489203333333333</v>
+        <v>0.223433</v>
       </c>
       <c r="H8">
-        <v>2.246761</v>
+        <v>0.670299</v>
       </c>
       <c r="I8">
-        <v>0.2367208348294586</v>
+        <v>0.1028448543242582</v>
       </c>
       <c r="J8">
-        <v>0.2684247109856285</v>
+        <v>0.116514083919468</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P8">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q8">
-        <v>45.72919488130644</v>
+        <v>13.64285458032467</v>
       </c>
       <c r="R8">
-        <v>411.5627539317579</v>
+        <v>122.785691222922</v>
       </c>
       <c r="S8">
-        <v>0.1759982025758859</v>
+        <v>0.07332919541599846</v>
       </c>
       <c r="T8">
-        <v>0.2163106875803151</v>
+        <v>0.09148511600763801</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.7489203333333333</v>
+        <v>0.223433</v>
       </c>
       <c r="H9">
-        <v>2.246761</v>
+        <v>0.670299</v>
       </c>
       <c r="I9">
-        <v>0.2367208348294586</v>
+        <v>0.1028448543242582</v>
       </c>
       <c r="J9">
-        <v>0.2684247109856285</v>
+        <v>0.116514083919468</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N9">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O9">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P9">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q9">
-        <v>0.09906568385266666</v>
+        <v>0.03493345163933333</v>
       </c>
       <c r="R9">
-        <v>0.891591154674</v>
+        <v>0.314401064754</v>
       </c>
       <c r="S9">
-        <v>0.000381274639544281</v>
+        <v>0.0001877643631495078</v>
       </c>
       <c r="T9">
-        <v>0.0004686058052280373</v>
+        <v>0.0002342538254699749</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.7489203333333333</v>
+        <v>0.223433</v>
       </c>
       <c r="H10">
-        <v>2.246761</v>
+        <v>0.670299</v>
       </c>
       <c r="I10">
-        <v>0.2367208348294586</v>
+        <v>0.1028448543242582</v>
       </c>
       <c r="J10">
-        <v>0.2684247109856285</v>
+        <v>0.116514083919468</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N10">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O10">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P10">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q10">
-        <v>14.280731956062</v>
+        <v>5.2766673491735</v>
       </c>
       <c r="R10">
-        <v>85.68439173637199</v>
+        <v>31.660004095041</v>
       </c>
       <c r="S10">
-        <v>0.05496233122534961</v>
+        <v>0.02836164300620685</v>
       </c>
       <c r="T10">
-        <v>0.04503432226150603</v>
+        <v>0.02358922378160956</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.7489203333333333</v>
+        <v>0.223433</v>
       </c>
       <c r="H11">
-        <v>2.246761</v>
+        <v>0.670299</v>
       </c>
       <c r="I11">
-        <v>0.2367208348294586</v>
+        <v>0.1028448543242582</v>
       </c>
       <c r="J11">
-        <v>0.2684247109856285</v>
+        <v>0.116514083919468</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N11">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O11">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P11">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q11">
-        <v>0.490634186614</v>
+        <v>0.03234639541</v>
       </c>
       <c r="R11">
-        <v>4.415707679525999</v>
+        <v>0.29111755869</v>
       </c>
       <c r="S11">
-        <v>0.001888306478836454</v>
+        <v>0.0001738591535999938</v>
       </c>
       <c r="T11">
-        <v>0.002320824115367652</v>
+        <v>0.0002169057596480192</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.121012</v>
+        <v>0.8302040000000001</v>
       </c>
       <c r="H12">
-        <v>2.242024</v>
+        <v>2.490612</v>
       </c>
       <c r="I12">
-        <v>0.3543326101358903</v>
+        <v>0.382137864323607</v>
       </c>
       <c r="J12">
-        <v>0.2678587727946332</v>
+        <v>0.4329282537775441</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N12">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O12">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P12">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q12">
-        <v>1.357609803354667</v>
+        <v>0.5477799453213333</v>
       </c>
       <c r="R12">
-        <v>8.145658820128</v>
+        <v>4.930019507892</v>
       </c>
       <c r="S12">
-        <v>0.005225040279191485</v>
+        <v>0.002944271114152497</v>
       </c>
       <c r="T12">
-        <v>0.004281225750736195</v>
+        <v>0.003673257055503058</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.121012</v>
+        <v>0.8302040000000001</v>
       </c>
       <c r="H13">
-        <v>2.242024</v>
+        <v>2.490612</v>
       </c>
       <c r="I13">
-        <v>0.3543326101358903</v>
+        <v>0.382137864323607</v>
       </c>
       <c r="J13">
-        <v>0.2678587727946332</v>
+        <v>0.4329282537775441</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>183.180478</v>
       </c>
       <c r="O13">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P13">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q13">
-        <v>68.44917133457866</v>
+        <v>50.69238851917067</v>
       </c>
       <c r="R13">
-        <v>410.695028007472</v>
+        <v>456.231496672536</v>
       </c>
       <c r="S13">
-        <v>0.2634407002783104</v>
+        <v>0.2724673228714809</v>
       </c>
       <c r="T13">
-        <v>0.2158546249519057</v>
+        <v>0.3399287896148067</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.121012</v>
+        <v>0.8302040000000001</v>
       </c>
       <c r="H14">
-        <v>2.242024</v>
+        <v>2.490612</v>
       </c>
       <c r="I14">
-        <v>0.3543326101358903</v>
+        <v>0.382137864323607</v>
       </c>
       <c r="J14">
-        <v>0.2678587727946332</v>
+        <v>0.4329282537775441</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N14">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O14">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P14">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q14">
-        <v>0.148285225336</v>
+        <v>0.1298012884613333</v>
       </c>
       <c r="R14">
-        <v>0.8897113520160002</v>
+        <v>1.168211596152</v>
       </c>
       <c r="S14">
-        <v>0.000570706158187026</v>
+        <v>0.0006976710035857458</v>
       </c>
       <c r="T14">
-        <v>0.0004676178115342866</v>
+        <v>0.0008704106507117349</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.121012</v>
+        <v>0.8302040000000001</v>
       </c>
       <c r="H15">
-        <v>2.242024</v>
+        <v>2.490612</v>
       </c>
       <c r="I15">
-        <v>0.3543326101358903</v>
+        <v>0.382137864323607</v>
       </c>
       <c r="J15">
-        <v>0.2678587727946332</v>
+        <v>0.4329282537775441</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N15">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O15">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P15">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q15">
-        <v>21.375934367112</v>
+        <v>19.606371216218</v>
       </c>
       <c r="R15">
-        <v>85.50373746844801</v>
+        <v>117.638227297308</v>
       </c>
       <c r="S15">
-        <v>0.08226967557064364</v>
+        <v>0.1053825955446373</v>
       </c>
       <c r="T15">
-        <v>0.04493937331742487</v>
+        <v>0.08764984554827347</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.121012</v>
+        <v>0.8302040000000001</v>
       </c>
       <c r="H16">
-        <v>2.242024</v>
+        <v>2.490612</v>
       </c>
       <c r="I16">
-        <v>0.3543326101358903</v>
+        <v>0.382137864323607</v>
       </c>
       <c r="J16">
-        <v>0.2678587727946332</v>
+        <v>0.4329282537775441</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N16">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O16">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P16">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q16">
-        <v>0.734399623464</v>
+        <v>0.12018863308</v>
       </c>
       <c r="R16">
-        <v>4.406397740784</v>
+        <v>1.08169769772</v>
       </c>
       <c r="S16">
-        <v>0.002826487849557756</v>
+        <v>0.0006460037897505262</v>
       </c>
       <c r="T16">
-        <v>0.002315930963032136</v>
+        <v>0.0008059509082491132</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.070362666666667</v>
+        <v>0.7646305</v>
       </c>
       <c r="H17">
-        <v>3.211088</v>
+        <v>1.529261</v>
       </c>
       <c r="I17">
-        <v>0.3383232271126553</v>
+        <v>0.3519547801103003</v>
       </c>
       <c r="J17">
-        <v>0.3836346493238132</v>
+        <v>0.2658223337477298</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N17">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O17">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P17">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q17">
-        <v>1.296270556792889</v>
+        <v>0.5045136538501667</v>
       </c>
       <c r="R17">
-        <v>11.666435011136</v>
+        <v>3.027081923101</v>
       </c>
       <c r="S17">
-        <v>0.004988963585292703</v>
+        <v>0.002711718438058575</v>
       </c>
       <c r="T17">
-        <v>0.006131688435752689</v>
+        <v>0.002255417045270665</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.070362666666667</v>
+        <v>0.7646305</v>
       </c>
       <c r="H18">
-        <v>3.211088</v>
+        <v>1.529261</v>
       </c>
       <c r="I18">
-        <v>0.3383232271126553</v>
+        <v>0.3519547801103003</v>
       </c>
       <c r="J18">
-        <v>0.3836346493238132</v>
+        <v>0.2658223337477298</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>183.180478</v>
       </c>
       <c r="O18">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P18">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q18">
-        <v>65.35651497111823</v>
+        <v>46.68846016112633</v>
       </c>
       <c r="R18">
-        <v>588.208634740064</v>
+        <v>280.130760966758</v>
       </c>
       <c r="S18">
-        <v>0.2515379768088356</v>
+        <v>0.25094654485028</v>
       </c>
       <c r="T18">
-        <v>0.3091528886075995</v>
+        <v>0.2087197205888067</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.070362666666667</v>
+        <v>0.7646305</v>
       </c>
       <c r="H19">
-        <v>3.211088</v>
+        <v>1.529261</v>
       </c>
       <c r="I19">
-        <v>0.3383232271126553</v>
+        <v>0.3519547801103003</v>
       </c>
       <c r="J19">
-        <v>0.3836346493238132</v>
+        <v>0.2658223337477298</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N19">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O19">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P19">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q19">
-        <v>0.1415854328213333</v>
+        <v>0.1195489591676667</v>
       </c>
       <c r="R19">
-        <v>1.274268895392</v>
+        <v>0.7172937550059999</v>
       </c>
       <c r="S19">
-        <v>0.0005449206300736779</v>
+        <v>0.0006425655962959353</v>
       </c>
       <c r="T19">
-        <v>0.0006697349998055369</v>
+        <v>0.0005344409575309516</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.070362666666667</v>
+        <v>0.7646305</v>
       </c>
       <c r="H20">
-        <v>3.211088</v>
+        <v>1.529261</v>
       </c>
       <c r="I20">
-        <v>0.3383232271126553</v>
+        <v>0.3519547801103003</v>
       </c>
       <c r="J20">
-        <v>0.3836346493238132</v>
+        <v>0.2658223337477298</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N20">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O20">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P20">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q20">
-        <v>20.410131302496</v>
+        <v>18.05776583374975</v>
       </c>
       <c r="R20">
-        <v>122.460787814976</v>
+        <v>72.23106333499899</v>
       </c>
       <c r="S20">
-        <v>0.07855258403085395</v>
+        <v>0.09705897191846079</v>
       </c>
       <c r="T20">
-        <v>0.0643633977098832</v>
+        <v>0.05381789313349419</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7646305</v>
+      </c>
+      <c r="H21">
+        <v>1.529261</v>
+      </c>
+      <c r="I21">
+        <v>0.3519547801103003</v>
+      </c>
+      <c r="J21">
+        <v>0.2658223337477298</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.14477</v>
+      </c>
+      <c r="N21">
+        <v>0.43431</v>
+      </c>
+      <c r="O21">
+        <v>0.00169049929374041</v>
+      </c>
+      <c r="P21">
+        <v>0.001861626958316384</v>
+      </c>
+      <c r="Q21">
+        <v>0.110695557485</v>
+      </c>
+      <c r="R21">
+        <v>0.66417334491</v>
+      </c>
+      <c r="S21">
+        <v>0.0005949793072050239</v>
+      </c>
+      <c r="T21">
+        <v>0.0004948620226273491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.293908</v>
+      </c>
+      <c r="H22">
+        <v>0.881724</v>
+      </c>
+      <c r="I22">
+        <v>0.1352840692499948</v>
+      </c>
+      <c r="J22">
+        <v>0.1532648327534563</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.6598136666666666</v>
+      </c>
+      <c r="N22">
+        <v>1.979441</v>
+      </c>
+      <c r="O22">
+        <v>0.007704735356083927</v>
+      </c>
+      <c r="P22">
+        <v>0.008484678519943686</v>
+      </c>
+      <c r="Q22">
+        <v>0.1939245151426666</v>
+      </c>
+      <c r="R22">
+        <v>1.745320636284</v>
+      </c>
+      <c r="S22">
+        <v>0.001042327951465341</v>
+      </c>
+      <c r="T22">
+        <v>0.001300402834326012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.293908</v>
+      </c>
+      <c r="H23">
+        <v>0.881724</v>
+      </c>
+      <c r="I23">
+        <v>0.1352840692499948</v>
+      </c>
+      <c r="J23">
+        <v>0.1532648327534563</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>61.06015933333333</v>
+      </c>
+      <c r="N23">
+        <v>183.180478</v>
+      </c>
+      <c r="O23">
+        <v>0.7130079175842846</v>
+      </c>
+      <c r="P23">
+        <v>0.7851850431306702</v>
+      </c>
+      <c r="Q23">
+        <v>17.94606930934133</v>
+      </c>
+      <c r="R23">
+        <v>161.514623784072</v>
+      </c>
+      <c r="S23">
+        <v>0.09645861249826693</v>
+      </c>
+      <c r="T23">
+        <v>0.1203412543159375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.293908</v>
+      </c>
+      <c r="H24">
+        <v>0.881724</v>
+      </c>
+      <c r="I24">
+        <v>0.1352840692499948</v>
+      </c>
+      <c r="J24">
+        <v>0.1532648327534563</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1563486666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.469046</v>
+      </c>
+      <c r="O24">
+        <v>0.001825704984300993</v>
+      </c>
+      <c r="P24">
+        <v>0.002010519394650058</v>
+      </c>
+      <c r="Q24">
+        <v>0.04595212392266666</v>
+      </c>
+      <c r="R24">
+        <v>0.4135691153039999</v>
+      </c>
+      <c r="S24">
+        <v>0.0002469887995262362</v>
+      </c>
+      <c r="T24">
+        <v>0.0003081419187686214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.070362666666667</v>
-      </c>
-      <c r="H21">
-        <v>3.211088</v>
-      </c>
-      <c r="I21">
-        <v>0.3383232271126553</v>
-      </c>
-      <c r="J21">
-        <v>0.3836346493238132</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.655122</v>
-      </c>
-      <c r="N21">
-        <v>1.965366</v>
-      </c>
-      <c r="O21">
-        <v>0.007976934012575832</v>
-      </c>
-      <c r="P21">
-        <v>0.008646089649666828</v>
-      </c>
-      <c r="Q21">
-        <v>0.701218130912</v>
-      </c>
-      <c r="R21">
-        <v>6.310963178208</v>
-      </c>
-      <c r="S21">
-        <v>0.002698782057599358</v>
-      </c>
-      <c r="T21">
-        <v>0.003316939570772184</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.293908</v>
+      </c>
+      <c r="H25">
+        <v>0.881724</v>
+      </c>
+      <c r="I25">
+        <v>0.1352840692499948</v>
+      </c>
+      <c r="J25">
+        <v>0.1532648327534563</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23.6163295</v>
+      </c>
+      <c r="N25">
+        <v>47.232659</v>
+      </c>
+      <c r="O25">
+        <v>0.2757711427815902</v>
+      </c>
+      <c r="P25">
+        <v>0.2024581319964196</v>
+      </c>
+      <c r="Q25">
+        <v>6.941028170686</v>
+      </c>
+      <c r="R25">
+        <v>41.646169024116</v>
+      </c>
+      <c r="S25">
+        <v>0.03730744237721484</v>
+      </c>
+      <c r="T25">
+        <v>0.03102971174000843</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.293908</v>
+      </c>
+      <c r="H26">
+        <v>0.881724</v>
+      </c>
+      <c r="I26">
+        <v>0.1352840692499948</v>
+      </c>
+      <c r="J26">
+        <v>0.1532648327534563</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.14477</v>
+      </c>
+      <c r="N26">
+        <v>0.43431</v>
+      </c>
+      <c r="O26">
+        <v>0.00169049929374041</v>
+      </c>
+      <c r="P26">
+        <v>0.001861626958316384</v>
+      </c>
+      <c r="Q26">
+        <v>0.04254906116000001</v>
+      </c>
+      <c r="R26">
+        <v>0.38294155044</v>
+      </c>
+      <c r="S26">
+        <v>0.0002286976235214449</v>
+      </c>
+      <c r="T26">
+        <v>0.0002853219444156863</v>
       </c>
     </row>
   </sheetData>
